--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS017-001-SetJenisMutasi.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS017-001-SetJenisMutasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI - STI\PROJECT\2023\DPLK\12 Februari 2023\Setup_Kepesertaan\KEP.SET.005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0F094C-F557-4A94-B788-E31C80EBFAA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF038F0-B577-41FF-8552-3F482660ED9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS017-001" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>RUN</t>
   </si>
@@ -74,31 +74,45 @@
   </si>
   <si>
     <t>Tambah Data Dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>bni1234</t>
+  </si>
+  <si>
+    <t>Kepesertaan</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Setup Jenis Mutasi</t>
+  </si>
+  <si>
+    <t>Penarikan Dana 5%</t>
+  </si>
+  <si>
+    <t>Penyelia Settlement</t>
+  </si>
+  <si>
+    <t>KODE_DOKUMEN</t>
+  </si>
+  <si>
+    <t>STATUS_MANDATORI</t>
+  </si>
+  <si>
+    <t>002 : ID Peserta</t>
+  </si>
+  <si>
+    <t>Tidak</t>
   </si>
   <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
 Kode Jenis Mutasi : 55;
-Nama Jenis Mutasi : Penarikan Dana 5%</t>
-  </si>
-  <si>
-    <t>bni1234</t>
-  </si>
-  <si>
-    <t>Kepesertaan</t>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Setup Jenis Mutasi</t>
-  </si>
-  <si>
-    <t>Penarikan Dana 5%</t>
-  </si>
-  <si>
-    <t>Penyelia Settlement</t>
+Nama Jenis Mutasi : Penarikan Dana 5%;
+Kode Dokumen : 002 : ID Peserta;
+Status Mandatori : Tidak</t>
   </si>
 </sst>
 </file>
@@ -153,27 +167,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -470,44 +481,46 @@
     <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -516,49 +529,61 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="76.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" ht="102">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3">
+        <v>30711</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4">
-        <v>30711</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="M2" s="1">
         <v>55</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
